--- a/Resource/excel/K-框架-条件定义-(框架定义,后端维护).xlsx
+++ b/Resource/excel/K-框架-条件定义-(框架定义,后端维护).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13140" tabRatio="710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13140" tabRatio="710"/>
   </bookViews>
   <sheets>
     <sheet name="conditiondefine" sheetId="14" r:id="rId1"/>
@@ -23,7 +28,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1">
+    <comment ref="F4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="1">
+    <comment ref="G4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="1">
+    <comment ref="J4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="1">
+    <comment ref="K4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0">
+    <comment ref="L4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0">
+    <comment ref="M4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>*dark_config</t>
   </si>
@@ -411,12 +416,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>killcount</t>
-  </si>
-  <si>
-    <t>击杀累计</t>
-  </si>
-  <si>
     <t>kill</t>
   </si>
   <si>
@@ -478,19 +477,54 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>totalkill</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每场击杀</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计击杀</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>kill</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fight</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗场次累计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>oomid</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -530,150 +564,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -684,8 +574,16 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,192 +628,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -938,255 +662,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,59 +723,14 @@
     <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1306,7 +743,37 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1322,18 +789,21 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1662,19 +1132,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.375" style="9" customWidth="1"/>
     <col min="2" max="2" width="57.5" style="9" customWidth="1"/>
@@ -1693,7 +1163,7 @@
     <col min="16" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:11">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1177,7 @@
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="13.5" spans="1:15">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1754,7 +1224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="13.5" spans="1:15">
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1801,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" ht="128" customHeight="1" spans="1:15">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="128.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1848,7 +1318,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="13.5" spans="1:15">
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
@@ -1889,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" ht="13.5" spans="1:15">
+    <row r="6" spans="1:15" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
@@ -1930,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="13.5" spans="1:15">
+    <row r="7" spans="1:15" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
@@ -1971,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="13.5" spans="1:15">
+    <row r="8" spans="1:15" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -2012,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="13.5" spans="1:15">
+    <row r="9" spans="1:15" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
@@ -2059,7 +1529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="13.5" spans="1:15">
+    <row r="10" spans="1:15" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>50</v>
       </c>
@@ -2106,18 +1576,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>53</v>
+    <row r="11" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>78</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7">
         <v>3</v>
@@ -2126,39 +1596,39 @@
         <v>0</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J11" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" ht="13.5" spans="1:15">
+    <row r="12" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>77</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="7">
         <v>3</v>
@@ -2188,97 +1658,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="8" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="7">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="7">
+        <v>16</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>1</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" s="8" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>1</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" s="8" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A15" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="F15" s="8">
         <v>1</v>
@@ -2311,148 +1781,236 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:15" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>1</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="F18" s="5">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>3</v>
+      </c>
+      <c r="N18" s="5">
+        <v>2</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="5" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="5">
+      <c r="D19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="5">
         <v>3</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G19" s="5">
         <v>2</v>
       </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14" t="s">
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5">
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
         <v>3</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N19" s="5">
         <v>2</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O19" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="5" t="s">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="B20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="5">
+      <c r="D20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="8">
         <v>3</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="8">
+        <v>13</v>
+      </c>
+      <c r="K20" s="8">
         <v>2</v>
       </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5">
-        <v>3</v>
-      </c>
-      <c r="N17" s="5">
-        <v>2</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" s="8" customFormat="1" ht="13.5" spans="1:15">
-      <c r="A18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="8">
-        <v>3</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="8">
-        <v>13</v>
-      </c>
-      <c r="K18" s="8">
-        <v>2</v>
-      </c>
-      <c r="L18" s="8">
+      <c r="L20" s="8">
         <v>4</v>
       </c>
-      <c r="M18" s="8">
-        <v>1</v>
-      </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8">
+      <c r="M20" s="8">
+        <v>1</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14 A21:A65430">
+    <cfRule type="duplicateValues" dxfId="2" priority="4" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11 A19:A65428">
-    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resource/excel/K-框架-条件定义-(框架定义,后端维护).xlsx
+++ b/Resource/excel/K-框架-条件定义-(框架定义,后端维护).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,6 +35,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -43,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -60,6 +62,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -68,6 +71,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -85,6 +89,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -93,6 +98,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -107,6 +113,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -115,6 +122,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -131,6 +139,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -139,6 +148,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -155,6 +165,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> 11 大于
@@ -174,6 +185,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -182,6 +194,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -198,6 +211,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -206,6 +220,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -222,6 +237,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -230,6 +246,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -246,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>*dark_config</t>
   </si>
@@ -517,6 +534,18 @@
       </rPr>
       <t>oomid</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailylevelfinish</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日关卡完成次数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailylevelfinish</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -535,18 +564,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -554,6 +586,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -561,17 +594,20 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -730,7 +766,27 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -789,8 +845,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1138,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1995,18 +2051,62 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="7">
+        <v>3</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" s="7">
+        <v>16</v>
+      </c>
+      <c r="K21" s="7">
+        <v>2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="5" priority="4" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14 A22:A65430">
+    <cfRule type="duplicateValues" dxfId="4" priority="5" stopIfTrue="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14 A21:A65430">
-    <cfRule type="duplicateValues" dxfId="2" priority="4" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="2" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="1" priority="2" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+  <conditionalFormatting sqref="A21">
     <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Resource/excel/K-框架-条件定义-(框架定义,后端维护).xlsx
+++ b/Resource/excel/K-框架-条件定义-(框架定义,后端维护).xlsx
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
   <si>
     <t>*dark_config</t>
   </si>
@@ -534,18 +534,6 @@
       </rPr>
       <t>oomid</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailylevelfinish</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日关卡完成次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailylevelfinish</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -766,27 +754,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -845,8 +813,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1194,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -2051,63 +2019,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="7">
-        <v>3</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="7">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7">
-        <v>2</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="5" priority="4" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4" stopIfTrue="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14 A22:A65430">
-    <cfRule type="duplicateValues" dxfId="4" priority="5" stopIfTrue="1"/>
+  <conditionalFormatting sqref="A21:A65429 A14">
+    <cfRule type="duplicateValues" dxfId="2" priority="5" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="3" priority="3" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="2" priority="2" stopIfTrue="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="0" priority="1" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2" stopIfTrue="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
